--- a/Processed Results/Nexus 5X/Speaker/Speaker - Raw.xlsx
+++ b/Processed Results/Nexus 5X/Speaker/Speaker - Raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Speaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Speaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37472-3FD7-4771-9C85-55D88F49DEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90084F62-ADC8-48BF-AD79-C0761BC7A710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="1690" windowWidth="9990" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9990" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -369,152 +369,152 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>98.269415999999893</v>
+        <v>111.193776</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>97.633367999999905</v>
+        <v>117.66211199999999</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>96.997319999999903</v>
+        <v>113.349887999999</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>96.3612719999999</v>
+        <v>115.506</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>97.633367999999905</v>
+        <v>112.88786399999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>96.043248000000006</v>
+        <v>114.27393600000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>96.838307999999998</v>
+        <v>117.970128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>97.315343999999996</v>
+        <v>113.19588</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>96.838307999999998</v>
+        <v>113.19588</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>96.3612719999999</v>
+        <v>113.349887999999</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>97.474356</v>
+        <v>113.65790399999899</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>99.223488000000003</v>
+        <v>109.49968800000001</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>97.156332000000006</v>
+        <v>114.581952</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>96.997319999999903</v>
+        <v>113.19588</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>96.202259999999995</v>
+        <v>116.584056</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>96.997319999999903</v>
+        <v>113.96592</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>96.997319999999903</v>
+        <v>113.503896</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>99.700523999999902</v>
+        <v>117.354096</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>96.520284000000004</v>
+        <v>113.349887999999</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>96.202259999999995</v>
+        <v>113.19588</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>98.269415999999893</v>
+        <v>113.503896</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>96.3612719999999</v>
+        <v>113.65790399999899</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>98.905463999999895</v>
+        <v>113.811911999999</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>96.838307999999998</v>
+        <v>114.427943999999</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>96.679295999999994</v>
+        <v>117.66211199999999</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>96.679295999999994</v>
+        <v>113.503896</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>96.202259999999995</v>
+        <v>113.349887999999</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>96.838307999999998</v>
+        <v>112.88786399999999</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>96.043248000000006</v>
+        <v>109.807704</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>96.838307999999998</v>
+        <v>113.811911999999</v>
       </c>
     </row>
   </sheetData>
